--- a/biology/Botanique/Berce_de_Sosnowskyi/Berce_de_Sosnowskyi.xlsx
+++ b/biology/Botanique/Berce_de_Sosnowskyi/Berce_de_Sosnowskyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heracleum sosnowskyi
 La Berce de Sosnowskyi ou Berce de Sosnowski (Heracleum sosnowskyi) est une espèce de plantes de la famille des Apiaceae.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La Berce de Sosnowski est une plante herbacée vivace avec une hauteur de 3 à 5 m. La tige est droite et ferme pouvant atteindre 12 cm de diamètre. Les feuilles mesurent de 50 à 60 cm de long. La racine est très ferme, jusqu'à 30 cm de long.
-Appareil reproducteur
-L'inflorescence est une grande ombelle située à l'extrémité de chaque tige. Elle fleurit de juillet à septembre et produit des milliers de graines.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Berce de Sosnowski est une plante herbacée vivace avec une hauteur de 3 à 5 m. La tige est droite et ferme pouvant atteindre 12 cm de diamètre. Les feuilles mesurent de 50 à 60 cm de long. La racine est très ferme, jusqu'à 30 cm de long.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phototoxicité</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Berce de Sosnowski contient des substances sont photosensibilisantes[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une grande ombelle située à l'extrémité de chaque tige. Elle fleurit de juillet à septembre et produit des milliers de graines.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phototoxicité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Berce de Sosnowski contient des substances sont photosensibilisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Berce_de_Sosnowskyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berce_de_Sosnowskyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèce envahissante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Berce de Sosnowski est considérée comme une espèce envahissante. Elle est inscrite sur la liste des espèces exotiques envahissantes préoccupantes pour l’Union Européenne[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Berce de Sosnowski est considérée comme une espèce envahissante. Elle est inscrite sur la liste des espèces exotiques envahissantes préoccupantes pour l’Union Européenne,.
 </t>
         </is>
       </c>
